--- a/ds/planejamento/3semestre/planos/Plano_de_Ensino_PPDM_1.xlsx
+++ b/ds/planejamento/3semestre/planos/Plano_de_Ensino_PPDM_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellifabio\Desktop\senai2026\ds\planejamento\3semestre\planos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA09961-C1A6-42C9-A3AD-8CB0D6948FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D709E8B-E458-495A-8BE1-8369512197E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>Capacidades</t>
   </si>
   <si>
-    <t xml:space="preserve">Docente : </t>
-  </si>
-  <si>
     <t xml:space="preserve">Objetivo: </t>
   </si>
   <si>
@@ -169,9 +166,6 @@
   </si>
   <si>
     <t>ANEXOS</t>
-  </si>
-  <si>
-    <t>Data :   /    / 2025</t>
   </si>
   <si>
     <t>Carga Horária Não-Presencial: 0</t>
@@ -486,9 +480,6 @@
     <t>Buscou entender o pronlema e pesquisou maneiras de solucionar</t>
   </si>
   <si>
-    <t>Data: 21/01/2026</t>
-  </si>
-  <si>
     <t xml:space="preserve">	As taxas de juros continuam autíssimas dificultando a aquisição de bens e serviços. Antes de comprar um bem financiado como um carro, uma moto, um imóvel ou até mesmo um eletrodoméstico, é importante simular o valor das parcelas e o custo total do financiamento.</t>
   </si>
   <si>
@@ -575,6 +566,15 @@
 9	Sair do sistema (logout)	
 10	README com Screenshots		
 </t>
+  </si>
+  <si>
+    <t>Docente : Wellington Fábio de O. Martins</t>
+  </si>
+  <si>
+    <t>Data :  21/01/2025</t>
+  </si>
+  <si>
+    <t>Data:   /   /2026</t>
   </si>
 </sst>
 </file>
@@ -1404,11 +1404,8 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1434,18 +1431,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1470,11 +1455,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1495,30 +1481,56 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1535,6 +1547,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1543,6 +1561,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1603,6 +1627,21 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1631,20 +1670,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1676,6 +1715,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1687,59 +1729,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2761,7 +2761,7 @@
   <dimension ref="A2:AA958"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B8"/>
+      <selection activeCell="E7" sqref="E7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2780,134 +2780,134 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="62"/>
+      <c r="G3" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="G4" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+    </row>
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="83"/>
+      <c r="G5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="159" t="s">
+      <c r="D7" s="77"/>
+      <c r="E7" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="159"/>
-      <c r="E7" s="68" t="s">
-        <v>60</v>
+      <c r="F7" s="64"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+    </row>
+    <row r="8" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+    </row>
+    <row r="9" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="78" t="s">
+        <v>38</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-    </row>
-    <row r="8" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-    </row>
-    <row r="9" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
     </row>
     <row r="10" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
@@ -2928,14 +2928,14 @@
       <c r="F10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84" t="s">
+      <c r="H10" s="79"/>
+      <c r="I10" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="84"/>
+      <c r="J10" s="79"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2956,31 +2956,31 @@
     </row>
     <row r="11" spans="1:27" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="31">
         <v>4</v>
       </c>
       <c r="C11" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="F11" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="G11" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="H11" s="81"/>
+      <c r="I11" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="61"/>
+      <c r="J11" s="81"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -3001,31 +3001,31 @@
     </row>
     <row r="12" spans="1:27" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
       <c r="C12" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="60" t="s">
+      <c r="H12" s="81"/>
+      <c r="I12" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="79"/>
+      <c r="J12" s="73"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -3046,31 +3046,31 @@
     </row>
     <row r="13" spans="1:27" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="31">
         <v>4</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="F13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="81"/>
+      <c r="I13" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="79"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -3091,31 +3091,31 @@
     </row>
     <row r="14" spans="1:27" ht="153" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="2">
         <v>8</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="44" t="s">
-        <v>70</v>
-      </c>
       <c r="F14" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="79"/>
+      <c r="G14" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="81"/>
+      <c r="I14" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="73"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -3136,31 +3136,31 @@
     </row>
     <row r="15" spans="1:27" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="31">
         <v>8</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>70</v>
+      <c r="H15" s="81"/>
+      <c r="I15" s="72" t="s">
+        <v>74</v>
       </c>
-      <c r="F15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="79"/>
+      <c r="J15" s="73"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -3181,31 +3181,31 @@
     </row>
     <row r="16" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2">
         <v>8</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>70</v>
+      <c r="H16" s="81"/>
+      <c r="I16" s="72" t="s">
+        <v>74</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="79"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -3226,31 +3226,31 @@
     </row>
     <row r="17" spans="1:27" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" s="31">
         <v>8</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D17" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="44" t="s">
-        <v>70</v>
+      <c r="H17" s="81"/>
+      <c r="I17" s="72" t="s">
+        <v>82</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" s="79"/>
+      <c r="J17" s="73"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -3271,31 +3271,31 @@
     </row>
     <row r="18" spans="1:27" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="44" t="s">
-        <v>86</v>
+      <c r="H18" s="81"/>
+      <c r="I18" s="72" t="s">
+        <v>74</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="79"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -3316,31 +3316,31 @@
     </row>
     <row r="19" spans="1:27" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="31">
         <v>8</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="79"/>
+      <c r="G19" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="81"/>
+      <c r="I19" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="73"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -3361,31 +3361,31 @@
     </row>
     <row r="20" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="2">
         <v>16</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="G20" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="H20" s="81"/>
+      <c r="I20" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="113" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" s="114"/>
+      <c r="J20" s="122"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -3406,31 +3406,31 @@
     </row>
     <row r="21" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2">
         <v>8</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="79"/>
+      <c r="G21" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="81"/>
+      <c r="I21" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="73"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="22" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="46">
         <f>SUM(B8:B21)</f>
@@ -3461,10 +3461,10 @@
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="132"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="145"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -3484,18 +3484,18 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="115" t="s">
-        <v>53</v>
+      <c r="A23" s="123" t="s">
+        <v>51</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="125"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -3515,18 +3515,18 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="118" t="s">
-        <v>35</v>
+      <c r="A24" s="126" t="s">
+        <v>34</v>
       </c>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -3546,18 +3546,18 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="112" t="s">
-        <v>128</v>
+      <c r="A25" s="120" t="s">
+        <v>125</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -3577,18 +3577,18 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="118" t="s">
-        <v>36</v>
+      <c r="A26" s="126" t="s">
+        <v>35</v>
       </c>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -3608,18 +3608,18 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="112" t="s">
-        <v>110</v>
+      <c r="A27" s="120" t="s">
+        <v>108</v>
       </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3636,18 +3636,18 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="118" t="s">
-        <v>37</v>
+      <c r="A28" s="126" t="s">
+        <v>36</v>
       </c>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -3667,18 +3667,18 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="112" t="s">
-        <v>111</v>
+      <c r="A29" s="120" t="s">
+        <v>109</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -3698,16 +3698,16 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="122"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="161"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="132"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -3727,16 +3727,16 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="85"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="87"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="135"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3756,18 +3756,18 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="75" t="s">
-        <v>38</v>
+      <c r="A32" s="69" t="s">
+        <v>37</v>
       </c>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -3787,22 +3787,22 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="119" t="s">
+      <c r="A33" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="121" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3822,12 +3822,12 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="120"/>
-      <c r="B34" s="120"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="29">
         <v>1</v>
       </c>
@@ -3859,18 +3859,18 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="162" t="s">
-        <v>112</v>
+      <c r="B35" s="84" t="s">
+        <v>110</v>
       </c>
-      <c r="C35" s="163"/>
-      <c r="D35" s="89" t="s">
-        <v>116</v>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86" t="s">
+        <v>114</v>
       </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="81"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="75"/>
       <c r="G35" s="12"/>
       <c r="H35" s="26"/>
       <c r="I35" s="27"/>
@@ -3894,16 +3894,16 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="106"/>
-      <c r="B36" s="162" t="s">
-        <v>113</v>
+      <c r="A36" s="114"/>
+      <c r="B36" s="84" t="s">
+        <v>111</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="89" t="s">
-        <v>117</v>
+      <c r="C36" s="85"/>
+      <c r="D36" s="86" t="s">
+        <v>115</v>
       </c>
-      <c r="E36" s="82"/>
-      <c r="F36" s="81"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="75"/>
       <c r="G36" s="12"/>
       <c r="H36" s="26"/>
       <c r="I36" s="22"/>
@@ -3927,16 +3927,16 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="106"/>
-      <c r="B37" s="164" t="s">
-        <v>114</v>
+      <c r="A37" s="114"/>
+      <c r="B37" s="87" t="s">
+        <v>112</v>
       </c>
-      <c r="C37" s="165"/>
-      <c r="D37" s="90" t="s">
-        <v>118</v>
+      <c r="C37" s="88"/>
+      <c r="D37" s="89" t="s">
+        <v>116</v>
       </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="81"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="75"/>
       <c r="G37" s="12"/>
       <c r="H37" s="26"/>
       <c r="I37" s="22"/>
@@ -3960,16 +3960,16 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="106"/>
-      <c r="B38" s="166" t="s">
-        <v>115</v>
+      <c r="A38" s="114"/>
+      <c r="B38" s="90" t="s">
+        <v>113</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="72" t="s">
-        <v>120</v>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92" t="s">
+        <v>118</v>
       </c>
-      <c r="E38" s="73"/>
-      <c r="F38" s="74"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="94"/>
       <c r="G38" s="12"/>
       <c r="H38" s="26"/>
       <c r="I38" s="22"/>
@@ -3993,16 +3993,16 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="106"/>
-      <c r="B39" s="166" t="s">
-        <v>69</v>
+      <c r="A39" s="114"/>
+      <c r="B39" s="90" t="s">
+        <v>67</v>
       </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="96" t="s">
-        <v>121</v>
+      <c r="C39" s="91"/>
+      <c r="D39" s="100" t="s">
+        <v>119</v>
       </c>
-      <c r="E39" s="97"/>
-      <c r="F39" s="98"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="102"/>
       <c r="G39" s="12"/>
       <c r="H39" s="26"/>
       <c r="I39" s="22"/>
@@ -4026,16 +4026,16 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="107"/>
-      <c r="B40" s="168" t="s">
-        <v>92</v>
+      <c r="A40" s="115"/>
+      <c r="B40" s="103" t="s">
+        <v>90</v>
       </c>
-      <c r="C40" s="169"/>
-      <c r="D40" s="90" t="s">
-        <v>119</v>
+      <c r="C40" s="104"/>
+      <c r="D40" s="89" t="s">
+        <v>117</v>
       </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="81"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="75"/>
       <c r="G40" s="12"/>
       <c r="H40" s="26"/>
       <c r="I40" s="22"/>
@@ -4059,18 +4059,18 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="99" t="s">
-        <v>34</v>
+      <c r="A41" s="105" t="s">
+        <v>33</v>
       </c>
-      <c r="B41" s="170" t="s">
-        <v>49</v>
+      <c r="B41" s="108" t="s">
+        <v>47</v>
       </c>
-      <c r="C41" s="171"/>
-      <c r="D41" s="102" t="s">
-        <v>125</v>
+      <c r="C41" s="109"/>
+      <c r="D41" s="110" t="s">
+        <v>123</v>
       </c>
-      <c r="E41" s="103"/>
-      <c r="F41" s="104"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="112"/>
       <c r="G41" s="12"/>
       <c r="H41" s="26"/>
       <c r="I41" s="22"/>
@@ -4094,16 +4094,16 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="100"/>
-      <c r="B42" s="170" t="s">
-        <v>122</v>
+      <c r="A42" s="106"/>
+      <c r="B42" s="108" t="s">
+        <v>120</v>
       </c>
-      <c r="C42" s="171"/>
-      <c r="D42" s="102" t="s">
-        <v>123</v>
+      <c r="C42" s="109"/>
+      <c r="D42" s="110" t="s">
+        <v>121</v>
       </c>
-      <c r="E42" s="103"/>
-      <c r="F42" s="104"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="112"/>
       <c r="G42" s="12"/>
       <c r="H42" s="26"/>
       <c r="I42" s="22"/>
@@ -4127,16 +4127,16 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="100"/>
-      <c r="B43" s="170" t="s">
-        <v>50</v>
+      <c r="A43" s="106"/>
+      <c r="B43" s="108" t="s">
+        <v>48</v>
       </c>
-      <c r="C43" s="171"/>
-      <c r="D43" s="102" t="s">
-        <v>124</v>
+      <c r="C43" s="109"/>
+      <c r="D43" s="110" t="s">
+        <v>122</v>
       </c>
-      <c r="E43" s="103"/>
-      <c r="F43" s="104"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="112"/>
       <c r="G43" s="12"/>
       <c r="H43" s="26"/>
       <c r="I43" s="22"/>
@@ -4160,16 +4160,16 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="101"/>
-      <c r="B44" s="170" t="s">
+      <c r="A44" s="107"/>
+      <c r="B44" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="171"/>
-      <c r="D44" s="102" t="s">
-        <v>126</v>
+      <c r="C44" s="109"/>
+      <c r="D44" s="110" t="s">
+        <v>124</v>
       </c>
-      <c r="E44" s="103"/>
-      <c r="F44" s="104"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="112"/>
       <c r="G44" s="12"/>
       <c r="H44" s="26"/>
       <c r="I44" s="22"/>
@@ -4193,14 +4193,14 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -4222,18 +4222,18 @@
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="94" t="s">
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="92"/>
-      <c r="H46" s="93"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="97"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -4258,17 +4258,17 @@
       <c r="A47" s="13">
         <v>5</v>
       </c>
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="109">
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="117">
         <v>100</v>
       </c>
-      <c r="G47" s="103"/>
-      <c r="H47" s="104"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="112"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -4293,17 +4293,17 @@
       <c r="A48" s="13">
         <v>4</v>
       </c>
-      <c r="B48" s="111" t="s">
-        <v>52</v>
+      <c r="B48" s="119" t="s">
+        <v>50</v>
       </c>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="109">
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="117">
         <v>80</v>
       </c>
-      <c r="G48" s="103"/>
-      <c r="H48" s="104"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="112"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4328,17 +4328,17 @@
       <c r="A49" s="13">
         <v>3</v>
       </c>
-      <c r="B49" s="111" t="s">
-        <v>51</v>
+      <c r="B49" s="119" t="s">
+        <v>49</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="109">
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="117">
         <v>65</v>
       </c>
-      <c r="G49" s="103"/>
-      <c r="H49" s="104"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="112"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -4363,17 +4363,17 @@
       <c r="A50" s="13">
         <v>2</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="109">
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="117">
         <v>50</v>
       </c>
-      <c r="G50" s="103"/>
-      <c r="H50" s="104"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="112"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -4398,17 +4398,17 @@
       <c r="A51" s="13">
         <v>1</v>
       </c>
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="109">
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="117">
         <v>30</v>
       </c>
-      <c r="G51" s="103"/>
-      <c r="H51" s="104"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="112"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -4500,16 +4500,16 @@
       <c r="D54" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="124">
+      <c r="E54" s="137">
         <v>1</v>
       </c>
-      <c r="F54" s="124">
+      <c r="F54" s="137">
         <v>0</v>
       </c>
-      <c r="G54" s="77" t="s">
+      <c r="G54" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H54" s="127" t="s">
+      <c r="H54" s="140" t="s">
         <v>26</v>
       </c>
       <c r="I54" s="1"/>
@@ -4539,10 +4539,10 @@
       <c r="D55" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="128"/>
+      <c r="E55" s="138"/>
+      <c r="F55" s="138"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="141"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4564,18 +4564,18 @@
       <c r="AA55" s="1"/>
     </row>
     <row r="56" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="123" t="s">
-        <v>43</v>
+      <c r="A56" s="136" t="s">
+        <v>42</v>
       </c>
-      <c r="B56" s="123"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="123"/>
-      <c r="J56" s="123"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4595,16 +4595,16 @@
       <c r="AA56" s="1"/>
     </row>
     <row r="57" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="123"/>
-      <c r="B57" s="123"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="123"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="123"/>
-      <c r="J57" s="123"/>
+      <c r="A57" s="136"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="136"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -30754,14 +30754,6 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I13:J13"/>
@@ -30772,6 +30764,14 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="A56:J57"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="F51:H51"/>
@@ -30793,6 +30793,8 @@
     <mergeCell ref="A33:C34"/>
     <mergeCell ref="D33:F34"/>
     <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A29:J29"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="F50:H50"/>
     <mergeCell ref="B47:E47"/>
@@ -30817,8 +30819,6 @@
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A29:J29"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="B37:C37"/>
@@ -30885,16 +30885,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
-        <v>53</v>
+      <c r="A1" s="151" t="s">
+        <v>51</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="153"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -30915,16 +30915,16 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
-        <v>35</v>
+      <c r="A2" s="159" t="s">
+        <v>34</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="148"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="161"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -30945,16 +30945,16 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
-        <v>129</v>
+      <c r="A3" s="162" t="s">
+        <v>126</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -30975,16 +30975,16 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
-        <v>36</v>
+      <c r="A4" s="163" t="s">
+        <v>35</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -31005,16 +31005,16 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="149" t="s">
-        <v>130</v>
+      <c r="A5" s="162" t="s">
+        <v>127</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -31035,14 +31035,14 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -31062,14 +31062,14 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -31090,16 +31090,16 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="150" t="s">
-        <v>37</v>
+      <c r="A8" s="163" t="s">
+        <v>36</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
       <c r="I8" s="9"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -31120,16 +31120,16 @@
       <c r="Z8" s="10"/>
     </row>
     <row r="9" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149" t="s">
-        <v>111</v>
+      <c r="A9" s="162" t="s">
+        <v>109</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -31149,16 +31149,16 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="152" t="s">
-        <v>38</v>
+      <c r="A10" s="166" t="s">
+        <v>37</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="154"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="168"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -31179,22 +31179,22 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="142"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="145" t="s">
+      <c r="B11" s="155"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="133" t="s">
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -31213,21 +31213,21 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
+      <c r="A12" s="157"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="49" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -31247,19 +31247,19 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="162" t="s">
-        <v>112</v>
+      <c r="B13" s="84" t="s">
+        <v>110</v>
       </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="89" t="s">
-        <v>116</v>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86" t="s">
+        <v>114</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="172" t="s">
+      <c r="E13" s="76"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="26"/>
@@ -31284,17 +31284,17 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="106"/>
-      <c r="B14" s="162" t="s">
-        <v>113</v>
+      <c r="A14" s="114"/>
+      <c r="B14" s="84" t="s">
+        <v>111</v>
       </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="89" t="s">
-        <v>117</v>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>115</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="172" t="s">
+      <c r="E14" s="76"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="26"/>
@@ -31319,17 +31319,17 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="106"/>
-      <c r="B15" s="164" t="s">
-        <v>114</v>
+      <c r="A15" s="114"/>
+      <c r="B15" s="87" t="s">
+        <v>112</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="90" t="s">
-        <v>118</v>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89" t="s">
+        <v>116</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="172" t="s">
+      <c r="E15" s="76"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="26"/>
@@ -31354,17 +31354,17 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="106"/>
-      <c r="B16" s="166" t="s">
-        <v>115</v>
+      <c r="A16" s="114"/>
+      <c r="B16" s="90" t="s">
+        <v>113</v>
       </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="72" t="s">
-        <v>120</v>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92" t="s">
+        <v>118</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="172" t="s">
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="26"/>
@@ -31389,17 +31389,17 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="106"/>
-      <c r="B17" s="166" t="s">
-        <v>69</v>
+      <c r="A17" s="114"/>
+      <c r="B17" s="90" t="s">
+        <v>67</v>
       </c>
-      <c r="C17" s="167"/>
-      <c r="D17" s="96" t="s">
-        <v>121</v>
+      <c r="C17" s="91"/>
+      <c r="D17" s="100" t="s">
+        <v>119</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="172" t="s">
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="26"/>
@@ -31424,17 +31424,17 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107"/>
-      <c r="B18" s="168" t="s">
-        <v>92</v>
+      <c r="A18" s="115"/>
+      <c r="B18" s="103" t="s">
+        <v>90</v>
       </c>
-      <c r="C18" s="169"/>
-      <c r="D18" s="90" t="s">
-        <v>119</v>
+      <c r="C18" s="104"/>
+      <c r="D18" s="89" t="s">
+        <v>117</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="172" t="s">
+      <c r="E18" s="76"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="26"/>
@@ -31459,19 +31459,19 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="99" t="s">
-        <v>34</v>
+      <c r="A19" s="105" t="s">
+        <v>33</v>
       </c>
-      <c r="B19" s="170" t="s">
-        <v>49</v>
+      <c r="B19" s="108" t="s">
+        <v>47</v>
       </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="102" t="s">
-        <v>125</v>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110" t="s">
+        <v>123</v>
       </c>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="172" t="s">
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="26"/>
@@ -31496,17 +31496,17 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="100"/>
-      <c r="B20" s="170" t="s">
-        <v>122</v>
+      <c r="A20" s="106"/>
+      <c r="B20" s="108" t="s">
+        <v>120</v>
       </c>
-      <c r="C20" s="171"/>
-      <c r="D20" s="102" t="s">
-        <v>123</v>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110" t="s">
+        <v>121</v>
       </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="172" t="s">
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="26"/>
@@ -31531,17 +31531,17 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="100"/>
-      <c r="B21" s="170" t="s">
-        <v>50</v>
+      <c r="A21" s="106"/>
+      <c r="B21" s="108" t="s">
+        <v>48</v>
       </c>
-      <c r="C21" s="171"/>
-      <c r="D21" s="102" t="s">
-        <v>124</v>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110" t="s">
+        <v>122</v>
       </c>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="172" t="s">
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="26"/>
@@ -31566,17 +31566,17 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="101"/>
-      <c r="B22" s="170" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="171"/>
-      <c r="D22" s="102" t="s">
-        <v>126</v>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110" t="s">
+        <v>124</v>
       </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="172" t="s">
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="26"/>
@@ -31629,18 +31629,18 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="94" t="s">
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="92"/>
-      <c r="H24" s="93"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="97"/>
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -31664,17 +31664,17 @@
       <c r="A25" s="13">
         <v>5</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="109">
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="117">
         <v>100</v>
       </c>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="112"/>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -31698,17 +31698,17 @@
       <c r="A26" s="13">
         <v>4</v>
       </c>
-      <c r="B26" s="111" t="s">
-        <v>52</v>
+      <c r="B26" s="119" t="s">
+        <v>50</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="109">
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="117">
         <v>80</v>
       </c>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="112"/>
       <c r="I26" s="7"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -31732,17 +31732,17 @@
       <c r="A27" s="13">
         <v>3</v>
       </c>
-      <c r="B27" s="111" t="s">
-        <v>51</v>
+      <c r="B27" s="119" t="s">
+        <v>49</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="109">
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="117">
         <v>65</v>
       </c>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="112"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -31766,17 +31766,17 @@
       <c r="A28" s="13">
         <v>2</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="109">
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="117">
         <v>50</v>
       </c>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="112"/>
       <c r="I28" s="7"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -31800,17 +31800,17 @@
       <c r="A29" s="13">
         <v>1</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="109">
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="117">
         <v>30</v>
       </c>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="112"/>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -31899,16 +31899,16 @@
       <c r="D32" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="137">
+      <c r="E32" s="146">
         <v>1</v>
       </c>
-      <c r="F32" s="137">
+      <c r="F32" s="146">
         <v>0</v>
       </c>
-      <c r="G32" s="155" t="s">
+      <c r="G32" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="157" t="s">
+      <c r="H32" s="149" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="7"/>
@@ -31937,10 +31937,10 @@
       <c r="D33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="158"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="150"/>
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -37798,6 +37798,14 @@
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A13:A18"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="D11:G12"/>
@@ -37810,6 +37818,7 @@
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B18:C18"/>
@@ -37826,15 +37835,6 @@
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A13:A18"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="B14:C14"/>
@@ -37872,16 +37872,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
-        <v>53</v>
+      <c r="A1" s="151" t="s">
+        <v>51</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="153"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -37902,16 +37902,16 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
-        <v>35</v>
+      <c r="A2" s="159" t="s">
+        <v>34</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="148"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="161"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -37932,16 +37932,16 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
-        <v>131</v>
+      <c r="A3" s="162" t="s">
+        <v>128</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -37962,16 +37962,16 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
-        <v>36</v>
+      <c r="A4" s="163" t="s">
+        <v>35</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -37992,16 +37992,16 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:27" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="149" t="s">
-        <v>132</v>
+      <c r="A5" s="162" t="s">
+        <v>129</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -38022,14 +38022,14 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
       <c r="J6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -38048,14 +38048,14 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -38076,16 +38076,16 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="150" t="s">
-        <v>37</v>
+      <c r="A8" s="163" t="s">
+        <v>36</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
       <c r="I8" s="9"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -38106,16 +38106,16 @@
       <c r="Z8" s="10"/>
     </row>
     <row r="9" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149" t="s">
-        <v>111</v>
+      <c r="A9" s="162" t="s">
+        <v>109</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -38135,16 +38135,16 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="152" t="s">
-        <v>38</v>
+      <c r="A10" s="166" t="s">
+        <v>37</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="154"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="168"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -38165,22 +38165,22 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="142"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="145" t="s">
+      <c r="B11" s="155"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="133" t="s">
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -38199,21 +38199,21 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
+      <c r="A12" s="157"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="49" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -38233,19 +38233,19 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="162" t="s">
-        <v>112</v>
+      <c r="B13" s="84" t="s">
+        <v>110</v>
       </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="89" t="s">
-        <v>116</v>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86" t="s">
+        <v>114</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="172" t="s">
+      <c r="E13" s="76"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="26"/>
@@ -38270,17 +38270,17 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="106"/>
-      <c r="B14" s="162" t="s">
-        <v>113</v>
+      <c r="A14" s="114"/>
+      <c r="B14" s="84" t="s">
+        <v>111</v>
       </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="89" t="s">
-        <v>117</v>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>115</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="172" t="s">
+      <c r="E14" s="76"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="26"/>
@@ -38305,17 +38305,17 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="106"/>
-      <c r="B15" s="164" t="s">
-        <v>114</v>
+      <c r="A15" s="114"/>
+      <c r="B15" s="87" t="s">
+        <v>112</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="90" t="s">
-        <v>118</v>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89" t="s">
+        <v>116</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="172" t="s">
+      <c r="E15" s="76"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="26"/>
@@ -38340,17 +38340,17 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="106"/>
-      <c r="B16" s="166" t="s">
-        <v>115</v>
+      <c r="A16" s="114"/>
+      <c r="B16" s="90" t="s">
+        <v>113</v>
       </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="72" t="s">
-        <v>120</v>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92" t="s">
+        <v>118</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="172" t="s">
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="26"/>
@@ -38375,17 +38375,17 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="106"/>
-      <c r="B17" s="166" t="s">
-        <v>69</v>
+      <c r="A17" s="114"/>
+      <c r="B17" s="90" t="s">
+        <v>67</v>
       </c>
-      <c r="C17" s="167"/>
-      <c r="D17" s="96" t="s">
-        <v>121</v>
+      <c r="C17" s="91"/>
+      <c r="D17" s="100" t="s">
+        <v>119</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="172" t="s">
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="26"/>
@@ -38410,17 +38410,17 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107"/>
-      <c r="B18" s="168" t="s">
-        <v>92</v>
+      <c r="A18" s="115"/>
+      <c r="B18" s="103" t="s">
+        <v>90</v>
       </c>
-      <c r="C18" s="169"/>
-      <c r="D18" s="90" t="s">
-        <v>119</v>
+      <c r="C18" s="104"/>
+      <c r="D18" s="89" t="s">
+        <v>117</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="172" t="s">
+      <c r="E18" s="76"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="26"/>
@@ -38445,19 +38445,19 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="99" t="s">
-        <v>34</v>
+      <c r="A19" s="105" t="s">
+        <v>33</v>
       </c>
-      <c r="B19" s="170" t="s">
-        <v>49</v>
+      <c r="B19" s="108" t="s">
+        <v>47</v>
       </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="102" t="s">
-        <v>125</v>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110" t="s">
+        <v>123</v>
       </c>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="172" t="s">
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="26"/>
@@ -38482,17 +38482,17 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="100"/>
-      <c r="B20" s="170" t="s">
-        <v>122</v>
+      <c r="A20" s="106"/>
+      <c r="B20" s="108" t="s">
+        <v>120</v>
       </c>
-      <c r="C20" s="171"/>
-      <c r="D20" s="102" t="s">
-        <v>123</v>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110" t="s">
+        <v>121</v>
       </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="172" t="s">
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="26"/>
@@ -38517,17 +38517,17 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="100"/>
-      <c r="B21" s="170" t="s">
-        <v>50</v>
+      <c r="A21" s="106"/>
+      <c r="B21" s="108" t="s">
+        <v>48</v>
       </c>
-      <c r="C21" s="171"/>
-      <c r="D21" s="102" t="s">
-        <v>124</v>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110" t="s">
+        <v>122</v>
       </c>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="172" t="s">
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="26"/>
@@ -38552,17 +38552,17 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="101"/>
-      <c r="B22" s="170" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="171"/>
-      <c r="D22" s="102" t="s">
-        <v>126</v>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110" t="s">
+        <v>124</v>
       </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="172" t="s">
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="26"/>
@@ -38615,18 +38615,18 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="94" t="s">
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="92"/>
-      <c r="H24" s="93"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="97"/>
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -38650,17 +38650,17 @@
       <c r="A25" s="13">
         <v>5</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="109">
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="117">
         <v>100</v>
       </c>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="112"/>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -38684,17 +38684,17 @@
       <c r="A26" s="13">
         <v>4</v>
       </c>
-      <c r="B26" s="111" t="s">
-        <v>52</v>
+      <c r="B26" s="119" t="s">
+        <v>50</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="109">
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="117">
         <v>80</v>
       </c>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="112"/>
       <c r="I26" s="7"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -38718,17 +38718,17 @@
       <c r="A27" s="13">
         <v>3</v>
       </c>
-      <c r="B27" s="111" t="s">
-        <v>51</v>
+      <c r="B27" s="119" t="s">
+        <v>49</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="109">
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="117">
         <v>65</v>
       </c>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="112"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -38752,17 +38752,17 @@
       <c r="A28" s="13">
         <v>2</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="109">
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="117">
         <v>50</v>
       </c>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="112"/>
       <c r="I28" s="7"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -38786,17 +38786,17 @@
       <c r="A29" s="13">
         <v>1</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="109">
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="117">
         <v>30</v>
       </c>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="112"/>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -38885,16 +38885,16 @@
       <c r="D32" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="137">
+      <c r="E32" s="146">
         <v>1</v>
       </c>
-      <c r="F32" s="137">
+      <c r="F32" s="146">
         <v>0</v>
       </c>
-      <c r="G32" s="155" t="s">
+      <c r="G32" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="157" t="s">
+      <c r="H32" s="149" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="7"/>
@@ -38923,10 +38923,10 @@
       <c r="D33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="158"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="150"/>
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -44788,13 +44788,11 @@
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="A19:A22"/>
@@ -44810,6 +44808,7 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:F16"/>
@@ -44821,12 +44820,13 @@
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="D11:G12"/>
     <mergeCell ref="H11:J11"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -44858,16 +44858,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
-        <v>53</v>
+      <c r="A1" s="151" t="s">
+        <v>51</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="153"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -44888,16 +44888,16 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
-        <v>35</v>
+      <c r="A2" s="159" t="s">
+        <v>34</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="148"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="161"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -44918,16 +44918,16 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
-        <v>133</v>
+      <c r="A3" s="162" t="s">
+        <v>130</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -44948,16 +44948,16 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
-        <v>36</v>
+      <c r="A4" s="163" t="s">
+        <v>35</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -44978,16 +44978,16 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="149" t="s">
-        <v>134</v>
+      <c r="A5" s="162" t="s">
+        <v>131</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -45008,14 +45008,14 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -45035,16 +45035,16 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="149" t="s">
-        <v>135</v>
+      <c r="A7" s="162" t="s">
+        <v>132</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -45064,14 +45064,14 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="149"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -45091,16 +45091,16 @@
       <c r="Z8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="365.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149" t="s">
-        <v>136</v>
+      <c r="A9" s="162" t="s">
+        <v>133</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -45121,14 +45121,14 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="A10" s="170"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="172"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -45149,7 +45149,7 @@
     </row>
     <row r="11" spans="1:26" ht="240.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="173" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B11" s="174"/>
       <c r="C11" s="174"/>
@@ -45178,16 +45178,16 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="150" t="s">
-        <v>37</v>
+      <c r="A12" s="163" t="s">
+        <v>36</v>
       </c>
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -45208,16 +45208,16 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13" spans="1:26" ht="246" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="149" t="s">
-        <v>138</v>
+      <c r="A13" s="162" t="s">
+        <v>135</v>
       </c>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -45237,16 +45237,16 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="152" t="s">
-        <v>38</v>
+      <c r="A14" s="166" t="s">
+        <v>37</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="154"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="168"/>
       <c r="I14" s="7"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -45267,22 +45267,22 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="145" t="s">
+      <c r="B15" s="155"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="133" t="s">
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -45301,21 +45301,21 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
+      <c r="A16" s="157"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
       <c r="H16" s="49" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -45335,19 +45335,19 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="162" t="s">
-        <v>112</v>
+      <c r="B17" s="84" t="s">
+        <v>110</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="89" t="s">
-        <v>116</v>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86" t="s">
+        <v>114</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="172" t="s">
+      <c r="E17" s="76"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="26"/>
@@ -45372,17 +45372,17 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="106"/>
-      <c r="B18" s="162" t="s">
-        <v>113</v>
+      <c r="A18" s="114"/>
+      <c r="B18" s="84" t="s">
+        <v>111</v>
       </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="89" t="s">
-        <v>117</v>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86" t="s">
+        <v>115</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="172" t="s">
+      <c r="E18" s="76"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="26"/>
@@ -45407,17 +45407,17 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="106"/>
-      <c r="B19" s="164" t="s">
-        <v>114</v>
+      <c r="A19" s="114"/>
+      <c r="B19" s="87" t="s">
+        <v>112</v>
       </c>
-      <c r="C19" s="165"/>
-      <c r="D19" s="90" t="s">
-        <v>118</v>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89" t="s">
+        <v>116</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="172" t="s">
+      <c r="E19" s="76"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="26"/>
@@ -45442,17 +45442,17 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="106"/>
-      <c r="B20" s="166" t="s">
-        <v>115</v>
+      <c r="A20" s="114"/>
+      <c r="B20" s="90" t="s">
+        <v>113</v>
       </c>
-      <c r="C20" s="167"/>
-      <c r="D20" s="72" t="s">
-        <v>120</v>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92" t="s">
+        <v>118</v>
       </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="172" t="s">
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="26"/>
@@ -45477,17 +45477,17 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="106"/>
-      <c r="B21" s="166" t="s">
-        <v>69</v>
+      <c r="A21" s="114"/>
+      <c r="B21" s="90" t="s">
+        <v>67</v>
       </c>
-      <c r="C21" s="167"/>
-      <c r="D21" s="96" t="s">
-        <v>121</v>
+      <c r="C21" s="91"/>
+      <c r="D21" s="100" t="s">
+        <v>119</v>
       </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="172" t="s">
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="26"/>
@@ -45512,17 +45512,17 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107"/>
-      <c r="B22" s="168" t="s">
-        <v>92</v>
+      <c r="A22" s="115"/>
+      <c r="B22" s="103" t="s">
+        <v>90</v>
       </c>
-      <c r="C22" s="169"/>
-      <c r="D22" s="90" t="s">
-        <v>119</v>
+      <c r="C22" s="104"/>
+      <c r="D22" s="89" t="s">
+        <v>117</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="172" t="s">
+      <c r="E22" s="76"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="26"/>
@@ -45547,19 +45547,19 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99" t="s">
-        <v>34</v>
+      <c r="A23" s="105" t="s">
+        <v>33</v>
       </c>
-      <c r="B23" s="170" t="s">
-        <v>49</v>
+      <c r="B23" s="108" t="s">
+        <v>47</v>
       </c>
-      <c r="C23" s="171"/>
-      <c r="D23" s="102" t="s">
-        <v>125</v>
+      <c r="C23" s="109"/>
+      <c r="D23" s="110" t="s">
+        <v>123</v>
       </c>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="172" t="s">
+      <c r="E23" s="111"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="26"/>
@@ -45584,17 +45584,17 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="100"/>
-      <c r="B24" s="170" t="s">
-        <v>122</v>
+      <c r="A24" s="106"/>
+      <c r="B24" s="108" t="s">
+        <v>120</v>
       </c>
-      <c r="C24" s="171"/>
-      <c r="D24" s="102" t="s">
-        <v>123</v>
+      <c r="C24" s="109"/>
+      <c r="D24" s="110" t="s">
+        <v>121</v>
       </c>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="172" t="s">
+      <c r="E24" s="111"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="26"/>
@@ -45619,17 +45619,17 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="100"/>
-      <c r="B25" s="170" t="s">
-        <v>50</v>
+      <c r="A25" s="106"/>
+      <c r="B25" s="108" t="s">
+        <v>48</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="102" t="s">
-        <v>124</v>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110" t="s">
+        <v>122</v>
       </c>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="172" t="s">
+      <c r="E25" s="111"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="26"/>
@@ -45654,17 +45654,17 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="101"/>
-      <c r="B26" s="170" t="s">
+      <c r="A26" s="107"/>
+      <c r="B26" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="171"/>
-      <c r="D26" s="102" t="s">
-        <v>126</v>
+      <c r="C26" s="109"/>
+      <c r="D26" s="110" t="s">
+        <v>124</v>
       </c>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="172" t="s">
+      <c r="E26" s="111"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="26"/>
@@ -45717,18 +45717,18 @@
       <c r="Z27" s="8"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="94" t="s">
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="92"/>
-      <c r="H28" s="93"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="7"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -45752,17 +45752,17 @@
       <c r="A29" s="13">
         <v>5</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="109">
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="117">
         <v>100</v>
       </c>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="112"/>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -45786,17 +45786,17 @@
       <c r="A30" s="13">
         <v>4</v>
       </c>
-      <c r="B30" s="111" t="s">
-        <v>52</v>
+      <c r="B30" s="119" t="s">
+        <v>50</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="109">
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="117">
         <v>80</v>
       </c>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="112"/>
       <c r="I30" s="7"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -45820,17 +45820,17 @@
       <c r="A31" s="13">
         <v>3</v>
       </c>
-      <c r="B31" s="111" t="s">
-        <v>51</v>
+      <c r="B31" s="119" t="s">
+        <v>49</v>
       </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="109">
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="117">
         <v>65</v>
       </c>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="112"/>
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -45854,17 +45854,17 @@
       <c r="A32" s="13">
         <v>2</v>
       </c>
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="109">
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="117">
         <v>50</v>
       </c>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="112"/>
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -45888,17 +45888,17 @@
       <c r="A33" s="13">
         <v>1</v>
       </c>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="109">
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="117">
         <v>30</v>
       </c>
-      <c r="G33" s="103"/>
-      <c r="H33" s="104"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="112"/>
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -45987,16 +45987,16 @@
       <c r="D36" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="137">
+      <c r="E36" s="146">
         <v>1</v>
       </c>
-      <c r="F36" s="137">
+      <c r="F36" s="146">
         <v>0</v>
       </c>
-      <c r="G36" s="155" t="s">
+      <c r="G36" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="157" t="s">
+      <c r="H36" s="149" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="7"/>
@@ -46025,10 +46025,10 @@
       <c r="D37" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="158"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="150"/>
       <c r="I37" s="7"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -51884,6 +51884,16 @@
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="G36:G37"/>
@@ -51894,16 +51904,6 @@
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="B24:C24"/>
@@ -51927,12 +51927,12 @@
     <mergeCell ref="A15:C16"/>
     <mergeCell ref="D15:G16"/>
     <mergeCell ref="H15:J15"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
